--- a/Bin/Server/DataConfig/Excel/Player.xlsx
+++ b/Bin/Server/DataConfig/Excel/Player.xlsx
@@ -1,25 +1,24 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="27309"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="18730"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/James/Desktop/NoahGameFrame/_Out/Server/NFDataCfg/Excel_Ini/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\cpp\ArkGameFrame\Bin\Server\DataConfig\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="27520" windowHeight="17540"/>
+    <workbookView xWindow="0" yWindow="465" windowWidth="27525" windowHeight="17535" firstSheet="2" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Property1" sheetId="1" r:id="rId1"/>
-    <sheet name="Property2" sheetId="2" r:id="rId2"/>
-    <sheet name="Record_Hero" sheetId="3" r:id="rId3"/>
-    <sheet name="Record_Bag" sheetId="4" r:id="rId4"/>
-    <sheet name="Record_CommPropertyValue" sheetId="5" r:id="rId5"/>
-    <sheet name="Record_Task" sheetId="6" r:id="rId6"/>
-    <sheet name="Record_Building" sheetId="7" r:id="rId7"/>
-    <sheet name="Component" sheetId="8" r:id="rId8"/>
+    <sheet name="DataNode_1" sheetId="1" r:id="rId1"/>
+    <sheet name="DataNode_2" sheetId="2" r:id="rId2"/>
+    <sheet name="DataTable_Hero" sheetId="3" r:id="rId3"/>
+    <sheet name="DataTable_Bag" sheetId="4" r:id="rId4"/>
+    <sheet name="DataTable_CommPropertyValue" sheetId="5" r:id="rId5"/>
+    <sheet name="DataTable_Task" sheetId="6" r:id="rId6"/>
+    <sheet name="Component" sheetId="8" r:id="rId7"/>
   </sheets>
   <definedNames>
     <definedName name="LOCAL_MYSQL_DATE_FORMAT" localSheetId="1" hidden="1">REPT(LOCAL_YEAR_FORMAT,4)&amp;LOCAL_DATE_SEPARATOR&amp;REPT(LOCAL_MONTH_FORMAT,2)&amp;LOCAL_DATE_SEPARATOR&amp;REPT(LOCAL_DAY_FORMAT,2)&amp;" "&amp;REPT(LOCAL_HOUR_FORMAT,2)&amp;LOCAL_TIME_SEPARATOR&amp;REPT(LOCAL_MINUTE_FORMAT,2)&amp;LOCAL_TIME_SEPARATOR&amp;REPT(LOCAL_SECOND_FORMAT,2)</definedName>
@@ -40,12 +39,12 @@
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>pengbo.yang</author>
   </authors>
   <commentList>
-    <comment ref="B8" authorId="0">
+    <comment ref="B8" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-000001000000}">
       <text>
         <r>
           <rPr>
@@ -57,7 +56,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C8" authorId="0">
+    <comment ref="C8" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-000002000000}">
       <text>
         <r>
           <rPr>
@@ -69,7 +68,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D8" authorId="0">
+    <comment ref="D8" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-000003000000}">
       <text>
         <r>
           <rPr>
@@ -81,7 +80,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E8" authorId="0">
+    <comment ref="E8" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-000004000000}">
       <text>
         <r>
           <rPr>
@@ -93,7 +92,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D28" authorId="0">
+    <comment ref="D28" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-000005000000}">
       <text>
         <r>
           <rPr>
@@ -105,7 +104,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E28" authorId="0">
+    <comment ref="E28" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-000006000000}">
       <text>
         <r>
           <rPr>
@@ -117,7 +116,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F28" authorId="0">
+    <comment ref="F28" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-000007000000}">
       <text>
         <r>
           <rPr>
@@ -129,7 +128,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="G28" authorId="0">
+    <comment ref="G28" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-000008000000}">
       <text>
         <r>
           <rPr>
@@ -141,7 +140,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="H28" authorId="0">
+    <comment ref="H28" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-000009000000}">
       <text>
         <r>
           <rPr>
@@ -153,7 +152,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I28" authorId="0">
+    <comment ref="I28" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-00000A000000}">
       <text>
         <r>
           <rPr>
@@ -165,7 +164,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="J28" authorId="0">
+    <comment ref="J28" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-00000B000000}">
       <text>
         <r>
           <rPr>
@@ -177,7 +176,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="K28" authorId="0">
+    <comment ref="K28" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-00000C000000}">
       <text>
         <r>
           <rPr>
@@ -194,12 +193,12 @@
 </file>
 
 <file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>pengbo.yang</author>
   </authors>
   <commentList>
-    <comment ref="D8" authorId="0">
+    <comment ref="D8" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0400-000001000000}">
       <text>
         <r>
           <rPr>
@@ -211,7 +210,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E8" authorId="0">
+    <comment ref="E8" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0400-000002000000}">
       <text>
         <r>
           <rPr>
@@ -223,7 +222,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F8" authorId="0">
+    <comment ref="F8" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0400-000003000000}">
       <text>
         <r>
           <rPr>
@@ -235,7 +234,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="G8" authorId="0">
+    <comment ref="G8" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0400-000004000000}">
       <text>
         <r>
           <rPr>
@@ -247,7 +246,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="H8" authorId="0">
+    <comment ref="H8" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0400-000005000000}">
       <text>
         <r>
           <rPr>
@@ -259,7 +258,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I8" authorId="0">
+    <comment ref="I8" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0400-000006000000}">
       <text>
         <r>
           <rPr>
@@ -271,7 +270,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="J8" authorId="0">
+    <comment ref="J8" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0400-000007000000}">
       <text>
         <r>
           <rPr>
@@ -283,7 +282,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="K8" authorId="0">
+    <comment ref="K8" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0400-000008000000}">
       <text>
         <r>
           <rPr>
@@ -300,12 +299,12 @@
 </file>
 
 <file path=xl/comments3.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>pengbo.yang</author>
   </authors>
   <commentList>
-    <comment ref="A8" authorId="0">
+    <comment ref="A8" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0500-000001000000}">
       <text>
         <r>
           <rPr>
@@ -317,7 +316,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B8" authorId="0">
+    <comment ref="B8" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0500-000002000000}">
       <text>
         <r>
           <rPr>
@@ -329,7 +328,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C8" authorId="0">
+    <comment ref="C8" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0500-000003000000}">
       <text>
         <r>
           <rPr>
@@ -341,7 +340,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D8" authorId="0">
+    <comment ref="D8" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0500-000004000000}">
       <text>
         <r>
           <rPr>
@@ -353,7 +352,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A18" authorId="0">
+    <comment ref="A18" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0500-000005000000}">
       <text>
         <r>
           <rPr>
@@ -365,7 +364,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B18" authorId="0">
+    <comment ref="B18" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0500-000006000000}">
       <text>
         <r>
           <rPr>
@@ -377,7 +376,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C18" authorId="0">
+    <comment ref="C18" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0500-000007000000}">
       <text>
         <r>
           <rPr>
@@ -393,42 +392,8 @@
 </comments>
 </file>
 
-<file path=xl/comments4.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <authors>
-    <author>pengbo.yang</author>
-  </authors>
-  <commentList>
-    <comment ref="A8" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <rFont val="宋体"/>
-            <charset val="134"/>
-          </rPr>
-          <t>建筑ID</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="A18" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <rFont val="宋体"/>
-            <charset val="134"/>
-          </rPr>
-          <t>建筑ID</t>
-        </r>
-      </text>
-    </comment>
-  </commentList>
-</comments>
-</file>
-
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="579" uniqueCount="216">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="529" uniqueCount="206">
   <si>
     <t>Id</t>
   </si>
@@ -1031,36 +996,6 @@
   </si>
   <si>
     <t>任务表</t>
-  </si>
-  <si>
-    <t>BuildingList</t>
-  </si>
-  <si>
-    <t>BuildingID</t>
-  </si>
-  <si>
-    <t>BuildingGUID</t>
-  </si>
-  <si>
-    <t>State</t>
-  </si>
-  <si>
-    <t>PosX</t>
-  </si>
-  <si>
-    <t>PosY</t>
-  </si>
-  <si>
-    <t>PosZ</t>
-  </si>
-  <si>
-    <t>StateStartTime</t>
-  </si>
-  <si>
-    <t>StateEndTime</t>
-  </si>
-  <si>
-    <t>BuildingListProduce</t>
   </si>
   <si>
     <t>Language</t>
@@ -1081,7 +1016,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1358,7 +1293,7 @@
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="2">
     <dxf>
@@ -1378,7 +1313,7 @@
     </dxf>
   </dxfs>
   <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium7">
-    <tableStyle name="MySqlDefault" count="2">
+    <tableStyle name="MySqlDefault" count="2" xr9:uid="{00000000-0011-0000-FFFF-FFFF00000000}">
       <tableStyleElement type="wholeTable" dxfId="1"/>
       <tableStyleElement type="headerRow" dxfId="0"/>
     </tableStyle>
@@ -1386,6 +1321,9 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -1719,26 +1657,26 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AK8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="8" topLeftCell="A9" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="23.83203125" customWidth="1"/>
-    <col min="2" max="2" width="8.1640625" customWidth="1"/>
+    <col min="1" max="1" width="23.875" customWidth="1"/>
+    <col min="2" max="2" width="8.125" customWidth="1"/>
     <col min="3" max="3" width="10.5" customWidth="1"/>
-    <col min="4" max="4" width="11.6640625" customWidth="1"/>
-    <col min="5" max="5" width="8.1640625" customWidth="1"/>
-    <col min="7" max="7" width="9.33203125" customWidth="1"/>
-    <col min="8" max="8" width="17.6640625" customWidth="1"/>
+    <col min="4" max="4" width="11.625" customWidth="1"/>
+    <col min="5" max="5" width="8.125" customWidth="1"/>
+    <col min="7" max="7" width="9.375" customWidth="1"/>
+    <col min="8" max="8" width="17.625" customWidth="1"/>
     <col min="9" max="9" width="19" customWidth="1"/>
-    <col min="10" max="10" width="12.6640625" customWidth="1"/>
-    <col min="11" max="11" width="17.33203125" customWidth="1"/>
+    <col min="10" max="10" width="12.625" customWidth="1"/>
+    <col min="11" max="11" width="17.375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:37" s="27" customFormat="1" x14ac:dyDescent="0.15">
@@ -2532,7 +2470,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:37" s="19" customFormat="1" ht="70" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:37" s="19" customFormat="1" ht="67.5" x14ac:dyDescent="0.15">
       <c r="A8" s="25" t="s">
         <v>46</v>
       </c>
@@ -2644,9 +2582,10 @@
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="3" type="noConversion"/>
   <dataValidations count="2">
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A7"/>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B7:I7 J7:AK7 F1:F6 F8:F1048576">
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A7" xr:uid="{00000000-0002-0000-0000-000000000000}"/>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B7:I7 J7:AK7 F1:F6 F8:F1048576" xr:uid="{00000000-0002-0000-0000-000001000000}">
       <formula1>"TRUE,FALSE"</formula1>
     </dataValidation>
   </dataValidations>
@@ -2657,19 +2596,19 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:AD8"/>
   <sheetViews>
     <sheetView topLeftCell="N1" workbookViewId="0">
       <selection activeCell="X25" sqref="X25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="19.1640625" customWidth="1"/>
+    <col min="1" max="1" width="19.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:30" s="16" customFormat="1" ht="28" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:30" s="16" customFormat="1" ht="27" x14ac:dyDescent="0.15">
       <c r="A1" s="20" t="s">
         <v>0</v>
       </c>
@@ -3313,7 +3252,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:30" s="19" customFormat="1" ht="56" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:30" s="19" customFormat="1" ht="67.5" x14ac:dyDescent="0.15">
       <c r="A8" s="25" t="s">
         <v>46</v>
       </c>
@@ -3406,9 +3345,10 @@
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="3" type="noConversion"/>
   <dataValidations count="2">
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A7"/>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B7:I7 J7:AK7">
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A7" xr:uid="{00000000-0002-0000-0100-000000000000}"/>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B7:I7 J7:AK7" xr:uid="{00000000-0002-0000-0100-000001000000}">
       <formula1>"TRUE,FALSE"</formula1>
     </dataValidation>
   </dataValidations>
@@ -3419,24 +3359,24 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:AC30"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A10" sqref="A2:A7 A10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="16.1640625" style="4" customWidth="1"/>
-    <col min="2" max="2" width="21.83203125" style="4" customWidth="1"/>
-    <col min="3" max="3" width="7.1640625" style="4" customWidth="1"/>
+    <col min="1" max="1" width="16.125" style="4" customWidth="1"/>
+    <col min="2" max="2" width="21.875" style="4" customWidth="1"/>
+    <col min="3" max="3" width="7.125" style="4" customWidth="1"/>
     <col min="4" max="4" width="10.5" style="4" customWidth="1"/>
-    <col min="5" max="5" width="11.6640625" style="4" customWidth="1"/>
+    <col min="5" max="5" width="11.625" style="4" customWidth="1"/>
     <col min="6" max="9" width="9" style="4"/>
-    <col min="10" max="10" width="12.6640625" style="4" customWidth="1"/>
-    <col min="11" max="11" width="17.6640625" style="4" customWidth="1"/>
-    <col min="12" max="13" width="15.1640625" style="4" customWidth="1"/>
+    <col min="10" max="10" width="12.625" style="4" customWidth="1"/>
+    <col min="11" max="11" width="17.625" style="4" customWidth="1"/>
+    <col min="12" max="13" width="15.125" style="4" customWidth="1"/>
     <col min="14" max="29" width="9" style="4"/>
     <col min="30" max="30" width="9" style="4" customWidth="1"/>
     <col min="31" max="16384" width="9" style="4"/>
@@ -3961,14 +3901,15 @@
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="3" type="noConversion"/>
   <dataValidations count="3">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B7 B17 B27 C30 C21:C27 G11:G17 G18:G19 G20:G27 G30:G1048576 A4:B6 A14:B16 D11:F17 A24:B26 D18:F19 D20:F27 D30:F1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B7 B17 B27 C30 C21:C27 G11:G17 G18:G19 G20:G27 G30:G1048576 A4:B6 A14:B16 D11:F17 A24:B26 D18:F19 D20:F27 D30:F1048576" xr:uid="{00000000-0002-0000-0200-000000000000}">
       <formula1>"TRUE,FALSE"</formula1>
     </dataValidation>
-    <dataValidation type="whole" operator="greaterThan" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C20 B31:B1048576 C11:C17 C18:C19 C31:C1048576 A2:B3 A12:B13 A22:B23">
+    <dataValidation type="whole" operator="greaterThan" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C20 B31:B1048576 C11:C17 C18:C19 C31:C1048576 A2:B3 A12:B13 A22:B23" xr:uid="{00000000-0002-0000-0200-000001000000}">
       <formula1>0</formula1>
     </dataValidation>
-    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="A29:C29 U29 D28:T29 V28:AC29">
+    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="A29:C29 U29 D28:T29 V28:AC29" xr:uid="{00000000-0002-0000-0200-000002000000}">
       <formula1>"int,string,float,object"</formula1>
     </dataValidation>
   </dataValidations>
@@ -3980,28 +3921,28 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:W20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="H18" sqref="H18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="12.6640625" customWidth="1"/>
-    <col min="2" max="2" width="15.33203125" customWidth="1"/>
-    <col min="3" max="3" width="10.33203125" customWidth="1"/>
-    <col min="4" max="4" width="14.1640625" customWidth="1"/>
-    <col min="5" max="5" width="11.6640625" customWidth="1"/>
-    <col min="11" max="11" width="12.6640625" customWidth="1"/>
+    <col min="1" max="1" width="12.625" customWidth="1"/>
+    <col min="2" max="2" width="15.375" customWidth="1"/>
+    <col min="3" max="3" width="10.375" customWidth="1"/>
+    <col min="4" max="4" width="14.125" customWidth="1"/>
+    <col min="5" max="5" width="11.625" customWidth="1"/>
+    <col min="11" max="11" width="12.625" customWidth="1"/>
     <col min="12" max="12" width="16.5" customWidth="1"/>
-    <col min="13" max="13" width="8.33203125" customWidth="1"/>
-    <col min="14" max="14" width="17.6640625" customWidth="1"/>
+    <col min="13" max="13" width="8.375" customWidth="1"/>
+    <col min="14" max="14" width="17.625" customWidth="1"/>
     <col min="15" max="15" width="14" customWidth="1"/>
     <col min="16" max="25" width="16.5" customWidth="1"/>
     <col min="26" max="26" width="19" customWidth="1"/>
-    <col min="27" max="31" width="20.1640625" customWidth="1"/>
+    <col min="27" max="31" width="20.125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:23" s="13" customFormat="1" x14ac:dyDescent="0.15">
@@ -4645,15 +4586,16 @@
       <c r="W20" s="3"/>
     </row>
   </sheetData>
+  <phoneticPr fontId="3" type="noConversion"/>
   <dataValidations count="4">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B7 E10:F10 B17 G1:G7 G10:G17 G20:G1048576 A4:B6 E1:F7 A14:B16 D11:F17 D20:F1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B7 E10:F10 B17 G1:G7 G10:G17 G20:G1048576 A4:B6 E1:F7 A14:B16 D11:F17 D20:F1048576" xr:uid="{00000000-0002-0000-0300-000000000000}">
       <formula1>"TRUE,FALSE"</formula1>
     </dataValidation>
-    <dataValidation showInputMessage="1" showErrorMessage="1" sqref="B8 G8 N8:W8 F8:F9 N1:N7 N10:N17 N20:N1048576"/>
-    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="B9 G9 N9:W9 A8:A9 I1:I7 I10:I17 I20:I1048576 J1:J7 J10:J17 J20:J1048576 O1:O7 O10:O17 O20:O1048576 K1:M7 V1:AE7 P1:U7 K10:M17 V10:AE17 P10:U17 K20:M1048576 V20:AE1048576 P20:U1048576 X8:AE9 C8:E9 H8:M9 A18:E19">
+    <dataValidation showInputMessage="1" showErrorMessage="1" sqref="B8 G8 N8:W8 F8:F9 N1:N7 N10:N17 N20:N1048576" xr:uid="{00000000-0002-0000-0300-000001000000}"/>
+    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="B9 G9 N9:W9 A8:A9 I1:I7 I10:I17 I20:I1048576 J1:J7 J10:J17 J20:J1048576 O1:O7 O10:O17 O20:O1048576 K1:M7 V1:AE7 P1:U7 K10:M17 V10:AE17 P10:U17 K20:M1048576 V20:AE1048576 P20:U1048576 X8:AE9 C8:E9 H8:M9 A18:E19" xr:uid="{00000000-0002-0000-0300-000002000000}">
       <formula1>"int,string,float,object"</formula1>
     </dataValidation>
-    <dataValidation type="whole" operator="greaterThan" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B21:B1048576 C11:C17 C20:C1048576 A12:B13 A2:B3">
+    <dataValidation type="whole" operator="greaterThan" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B21:B1048576 C11:C17 C20:C1048576 A12:B13 A2:B3" xr:uid="{00000000-0002-0000-0300-000003000000}">
       <formula1>0</formula1>
     </dataValidation>
   </dataValidations>
@@ -4664,41 +4606,41 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:AC10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="19.33203125" customWidth="1"/>
+    <col min="1" max="1" width="19.375" customWidth="1"/>
     <col min="2" max="2" width="21" customWidth="1"/>
-    <col min="3" max="3" width="7.1640625" customWidth="1"/>
+    <col min="3" max="3" width="7.125" customWidth="1"/>
     <col min="4" max="4" width="10.5" customWidth="1"/>
-    <col min="5" max="5" width="11.6640625" customWidth="1"/>
-    <col min="8" max="9" width="9.1640625" customWidth="1"/>
-    <col min="10" max="12" width="12.6640625" customWidth="1"/>
-    <col min="13" max="13" width="11.6640625" customWidth="1"/>
-    <col min="14" max="14" width="10.33203125" customWidth="1"/>
-    <col min="15" max="15" width="11.6640625" customWidth="1"/>
-    <col min="16" max="16" width="10.33203125" customWidth="1"/>
-    <col min="17" max="17" width="9.1640625" customWidth="1"/>
-    <col min="18" max="18" width="12.83203125" customWidth="1"/>
-    <col min="19" max="19" width="10.33203125" customWidth="1"/>
-    <col min="20" max="20" width="15.1640625" customWidth="1"/>
+    <col min="5" max="5" width="11.625" customWidth="1"/>
+    <col min="8" max="9" width="9.125" customWidth="1"/>
+    <col min="10" max="12" width="12.625" customWidth="1"/>
+    <col min="13" max="13" width="11.625" customWidth="1"/>
+    <col min="14" max="14" width="10.375" customWidth="1"/>
+    <col min="15" max="15" width="11.625" customWidth="1"/>
+    <col min="16" max="16" width="10.375" customWidth="1"/>
+    <col min="17" max="17" width="9.125" customWidth="1"/>
+    <col min="18" max="18" width="12.875" customWidth="1"/>
+    <col min="19" max="19" width="10.375" customWidth="1"/>
+    <col min="20" max="20" width="15.125" customWidth="1"/>
     <col min="21" max="21" width="14" customWidth="1"/>
-    <col min="22" max="22" width="12.6640625" customWidth="1"/>
+    <col min="22" max="22" width="12.625" customWidth="1"/>
     <col min="23" max="23" width="14" customWidth="1"/>
-    <col min="24" max="25" width="11.6640625" customWidth="1"/>
-    <col min="26" max="26" width="15.1640625" customWidth="1"/>
-    <col min="27" max="27" width="12.6640625" customWidth="1"/>
+    <col min="24" max="25" width="11.625" customWidth="1"/>
+    <col min="26" max="26" width="15.125" customWidth="1"/>
+    <col min="27" max="27" width="12.625" customWidth="1"/>
     <col min="28" max="29" width="14" customWidth="1"/>
-    <col min="30" max="30" width="11.6640625" customWidth="1"/>
-    <col min="31" max="32" width="15.1640625" customWidth="1"/>
+    <col min="30" max="30" width="11.625" customWidth="1"/>
+    <col min="31" max="32" width="15.125" customWidth="1"/>
     <col min="33" max="33" width="14" customWidth="1"/>
-    <col min="34" max="34" width="15.1640625" customWidth="1"/>
+    <col min="34" max="34" width="15.125" customWidth="1"/>
     <col min="35" max="35" width="19" customWidth="1"/>
   </cols>
   <sheetData>
@@ -4945,14 +4887,15 @@
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="3" type="noConversion"/>
   <dataValidations count="3">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B7 G1:G7 G10:G1048576 A4:B6 D1:F7 D10:F1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B7 G1:G7 G10:G1048576 A4:B6 D1:F7 D10:F1048576" xr:uid="{00000000-0002-0000-0400-000000000000}">
       <formula1>"TRUE,FALSE"</formula1>
     </dataValidation>
-    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="A9:C9 U9 AC1:AC7 AC10:AC1048576 AD1:AK1048576 I1:K7 I10:K1048576 L1:AB7 L10:AB1048576 D8:T9 V8:AC9">
+    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="A9:C9 U9 AC1:AC7 AC10:AC1048576 AD1:AK1048576 I1:K7 I10:K1048576 L1:AB7 L10:AB1048576 D8:T9 V8:AC9" xr:uid="{00000000-0002-0000-0400-000001000000}">
       <formula1>"int,string,float,object"</formula1>
     </dataValidation>
-    <dataValidation type="whole" operator="greaterThan" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C10 C1:C7 A2:B3 B11:C1048576">
+    <dataValidation type="whole" operator="greaterThan" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C10 C1:C7 A2:B3 B11:C1048576" xr:uid="{00000000-0002-0000-0400-000002000000}">
       <formula1>0</formula1>
     </dataValidation>
   </dataValidations>
@@ -4964,23 +4907,23 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:D20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C23" sqref="C23"/>
+      <selection activeCell="I43" sqref="I43"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="16.1640625" customWidth="1"/>
-    <col min="2" max="2" width="17.1640625" customWidth="1"/>
-    <col min="3" max="3" width="20.33203125" customWidth="1"/>
+    <col min="1" max="1" width="16.125" customWidth="1"/>
+    <col min="2" max="2" width="17.125" customWidth="1"/>
+    <col min="3" max="3" width="20.375" customWidth="1"/>
     <col min="4" max="4" width="10.5" customWidth="1"/>
-    <col min="5" max="5" width="11.6640625" customWidth="1"/>
+    <col min="5" max="5" width="11.625" customWidth="1"/>
     <col min="8" max="8" width="11" customWidth="1"/>
-    <col min="9" max="9" width="12.6640625" customWidth="1"/>
-    <col min="10" max="11" width="22.6640625" customWidth="1"/>
+    <col min="9" max="9" width="12.625" customWidth="1"/>
+    <col min="10" max="11" width="22.625" customWidth="1"/>
     <col min="12" max="12" width="10.5" customWidth="1"/>
   </cols>
   <sheetData>
@@ -5163,17 +5106,18 @@
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="3" type="noConversion"/>
   <dataValidations count="4">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B7 E10:F10 D18:F18 G18 D19:F19 G19 G1:G7 G8:G9 G10:G17 G20:G1048576 A4:B6 E1:F7 A14:B16 E8:F9 D11:F17 D20:F1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B7 E10:F10 D18:F18 G18 D19:F19 G19 G1:G7 G8:G9 G10:G17 G20:G1048576 A4:B6 E1:F7 A14:B16 E8:F9 D11:F17 D20:F1048576" xr:uid="{00000000-0002-0000-0500-000000000000}">
       <formula1>"TRUE,FALSE"</formula1>
     </dataValidation>
-    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="I18:L18 I19:L19 I1:L7 A8:D9 I8:L9 I10:L17 I20:L1048576 A18:B19">
+    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="I18:L18 I19:L19 I1:L7 A8:D9 I8:L9 I10:L17 I20:L1048576 A18:B19" xr:uid="{00000000-0002-0000-0500-000001000000}">
       <formula1>"int,float,string,object"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B17">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B17" xr:uid="{00000000-0002-0000-0500-000002000000}">
       <formula1>"true,false"</formula1>
     </dataValidation>
-    <dataValidation type="whole" operator="greaterThan" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B21:B1048576 C11:C17 C20:C1048576 A12:B13 A2:B3">
+    <dataValidation type="whole" operator="greaterThan" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B21:B1048576 C11:C17 C20:C1048576 A12:B13 A2:B3" xr:uid="{00000000-0002-0000-0500-000003000000}">
       <formula1>0</formula1>
     </dataValidation>
   </dataValidations>
@@ -5185,288 +5129,17 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H20"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E27" sqref="E27"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0.15"/>
-  <cols>
-    <col min="1" max="1" width="16.1640625" style="4" customWidth="1"/>
-    <col min="2" max="3" width="7.1640625" style="4" customWidth="1"/>
-    <col min="4" max="4" width="10.5" style="4" customWidth="1"/>
-    <col min="5" max="5" width="11.6640625" style="4" customWidth="1"/>
-    <col min="6" max="10" width="9" style="4"/>
-    <col min="11" max="11" width="12.6640625" style="4" customWidth="1"/>
-    <col min="12" max="12" width="13.83203125" style="4" customWidth="1"/>
-    <col min="13" max="13" width="9" style="4"/>
-    <col min="14" max="14" width="11.6640625" style="4" customWidth="1"/>
-    <col min="15" max="15" width="13.83203125" style="4" customWidth="1"/>
-    <col min="16" max="16384" width="9" style="4"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="3" t="s">
-        <v>137</v>
-      </c>
-      <c r="B2" s="3">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="3" t="s">
-        <v>138</v>
-      </c>
-      <c r="B3" s="3">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="B4" s="3" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A5" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="B5" s="3" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A6" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="B6" s="3" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A7" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="B7" s="3" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A8" s="3" t="s">
-        <v>202</v>
-      </c>
-      <c r="B8" s="3" t="s">
-        <v>203</v>
-      </c>
-      <c r="C8" s="3" t="s">
-        <v>204</v>
-      </c>
-      <c r="D8" s="3" t="s">
-        <v>205</v>
-      </c>
-      <c r="E8" s="3" t="s">
-        <v>206</v>
-      </c>
-      <c r="F8" s="3" t="s">
-        <v>207</v>
-      </c>
-      <c r="G8" s="3" t="s">
-        <v>208</v>
-      </c>
-      <c r="H8" s="3" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A9" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="B9" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="C9" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="D9" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="E9" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="F9" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="G9" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="H9" s="3" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A10" s="3" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A11" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B11" s="2" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A12" s="3" t="s">
-        <v>137</v>
-      </c>
-      <c r="B12" s="3">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A13" s="3" t="s">
-        <v>138</v>
-      </c>
-      <c r="B13" s="3">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A14" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="B14" s="3" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A15" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="B15" s="3" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A16" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="B16" s="3" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A17" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="B17" s="3" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A18" s="3" t="s">
-        <v>202</v>
-      </c>
-      <c r="B18" s="3" t="s">
-        <v>203</v>
-      </c>
-      <c r="C18" s="3" t="s">
-        <v>204</v>
-      </c>
-      <c r="D18" s="3" t="s">
-        <v>205</v>
-      </c>
-      <c r="E18" s="3" t="s">
-        <v>206</v>
-      </c>
-      <c r="F18" s="3" t="s">
-        <v>207</v>
-      </c>
-      <c r="G18" s="3" t="s">
-        <v>208</v>
-      </c>
-      <c r="H18" s="3" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A19" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="B19" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="C19" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="D19" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="E19" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="F19" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="G19" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="H19" s="3" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A20" s="3" t="s">
-        <v>46</v>
-      </c>
-    </row>
-  </sheetData>
-  <dataValidations count="6">
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A7 A17"/>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B7 E10:F10 B17 G1:G7 G10:G17 G20:G1048576 H1:H7 H10:H17 H20:H1048576 I1:I1048576 A4:B6 A14:B16 E1:F7 D11:F17 D20:F1048576">
-      <formula1>"TRUE,FALSE"</formula1>
-    </dataValidation>
-    <dataValidation showInputMessage="1" showErrorMessage="1" sqref="A8:B8 D8:F8 A18:B18 D18:F18 K38:K1048576"/>
-    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="A9 B9 D9:F9 A19 B19 D19:F19 K1:K37">
-      <formula1>"int,float,string,object"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C9 C19">
-      <formula1>"int,float,string,object"</formula1>
-    </dataValidation>
-    <dataValidation type="whole" operator="greaterThan" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B21:B1048576 C11:C17 C20:C1048576 A2:B3 A12:B13">
-      <formula1>0</formula1>
-    </dataValidation>
-  </dataValidations>
-  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <legacyDrawing r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="K46" sqref="K46"/>
+      <selection activeCell="K40" sqref="K40"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="8.1640625" customWidth="1"/>
-    <col min="2" max="2" width="12.6640625" customWidth="1"/>
+    <col min="1" max="1" width="8.125" customWidth="1"/>
+    <col min="2" max="2" width="12.625" customWidth="1"/>
     <col min="3" max="3" width="10.5" customWidth="1"/>
   </cols>
   <sheetData>
@@ -5475,10 +5148,10 @@
         <v>1</v>
       </c>
       <c r="B1" t="s">
-        <v>211</v>
+        <v>201</v>
       </c>
       <c r="C1" t="s">
-        <v>212</v>
+        <v>202</v>
       </c>
       <c r="D1" t="s">
         <v>46</v>
@@ -5486,24 +5159,25 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A2" s="1" t="s">
-        <v>213</v>
+        <v>203</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>214</v>
+        <v>204</v>
       </c>
       <c r="C2" t="b">
         <v>1</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>215</v>
+        <v>205</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="3" type="noConversion"/>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B2">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B2" xr:uid="{00000000-0002-0000-0700-000000000000}">
       <formula1>"lua,python,C#,js"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C2">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C2" xr:uid="{00000000-0002-0000-0700-000001000000}">
       <formula1>"TRUE,FALSE"</formula1>
     </dataValidation>
   </dataValidations>
